--- a/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
+++ b/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\250477\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28BC21-C16D-4CAD-AD4B-9CFF41C57E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681528A4-BA06-4ED7-BB4B-9177645EBEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -2789,9 +2789,6 @@
     <t>Commodore shared files/Component images/74LS86.png</t>
   </si>
   <si>
-    <t>2026-February-8</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component images/C64 RF modulator.png</t>
   </si>
   <si>
@@ -2806,6 +2803,54 @@
   </si>
   <si>
     <t>Resistors are non-polarized, so they have no + (plus) or – (minus) terminal and can be mounted in either direction</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8502.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8722.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8721.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS244.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6116.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4464.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/5710.txt</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
   </si>
   <si>
     <r>
@@ -2820,53 +2865,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-8</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8502.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8722.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8721.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS373.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS244.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6116.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4464.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/5710.txt</t>
   </si>
 </sst>
 </file>
@@ -3145,11 +3145,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3470,7 +3470,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="21">
       <c r="A3" s="10" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3541,12 +3541,12 @@
         <v>292</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A9" s="37" t="s">
@@ -3777,9 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51B2-79EE-4420-A06F-4DB0AB134ADC}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -3823,7 +3821,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -13020,15 +13018,15 @@
         <v>340</v>
       </c>
       <c r="B267" s="11"/>
-      <c r="C267" s="51"/>
+      <c r="C267" s="50"/>
       <c r="D267" s="11" t="s">
         <v>749</v>
       </c>
       <c r="F267" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="72">
@@ -13039,7 +13037,7 @@
         <v>749</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="72">
@@ -13050,7 +13048,7 @@
         <v>749</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="28.8">
@@ -13062,10 +13060,10 @@
         <v>749</v>
       </c>
       <c r="F270" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G270" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G270" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="28.8">
@@ -13077,10 +13075,10 @@
         <v>749</v>
       </c>
       <c r="F271" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G271" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G271" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="28.8">
@@ -13092,10 +13090,10 @@
         <v>749</v>
       </c>
       <c r="F272" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G272" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G272" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="28.8">
@@ -13107,10 +13105,10 @@
         <v>749</v>
       </c>
       <c r="F273" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G273" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G273" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="28.8">
@@ -13122,10 +13120,10 @@
         <v>749</v>
       </c>
       <c r="F274" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G274" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G274" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="28.8">
@@ -13137,10 +13135,10 @@
         <v>749</v>
       </c>
       <c r="F275" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G275" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G275" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="28.8">
@@ -13152,10 +13150,10 @@
         <v>749</v>
       </c>
       <c r="F276" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G276" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G276" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="28.8">
@@ -13167,10 +13165,10 @@
         <v>749</v>
       </c>
       <c r="F277" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G277" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G277" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="28.8">
@@ -13182,10 +13180,10 @@
         <v>749</v>
       </c>
       <c r="F278" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G278" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G278" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="28.8">
@@ -13197,10 +13195,10 @@
         <v>749</v>
       </c>
       <c r="F279" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G279" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G279" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="28.8">
@@ -13212,10 +13210,10 @@
         <v>749</v>
       </c>
       <c r="F280" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G280" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G280" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="28.8">
@@ -13227,10 +13225,10 @@
         <v>749</v>
       </c>
       <c r="F281" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G281" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G281" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="28.8">
@@ -13242,10 +13240,10 @@
         <v>749</v>
       </c>
       <c r="F282" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G282" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G282" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="28.8">
@@ -13257,10 +13255,10 @@
         <v>749</v>
       </c>
       <c r="F283" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G283" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G283" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="28.8">
@@ -13272,10 +13270,10 @@
         <v>749</v>
       </c>
       <c r="F284" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G284" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G284" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="28.8">
@@ -13287,10 +13285,10 @@
         <v>749</v>
       </c>
       <c r="F285" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G285" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G285" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="28.8">
@@ -13302,10 +13300,10 @@
         <v>749</v>
       </c>
       <c r="F286" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G286" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G286" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="28.8">
@@ -13317,10 +13315,10 @@
         <v>749</v>
       </c>
       <c r="F287" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G287" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G287" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="28.8">
@@ -13332,10 +13330,10 @@
         <v>749</v>
       </c>
       <c r="F288" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G288" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G288" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="28.8">
@@ -13347,10 +13345,10 @@
         <v>749</v>
       </c>
       <c r="F289" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G289" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G289" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="28.8">
@@ -13362,10 +13360,10 @@
         <v>749</v>
       </c>
       <c r="F290" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G290" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G290" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="28.8">
@@ -13377,10 +13375,10 @@
         <v>749</v>
       </c>
       <c r="F291" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G291" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G291" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="28.8">
@@ -13392,10 +13390,10 @@
         <v>749</v>
       </c>
       <c r="F292" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G292" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G292" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="28.8">
@@ -13407,10 +13405,10 @@
         <v>749</v>
       </c>
       <c r="F293" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G293" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G293" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="28.8">
@@ -13422,10 +13420,10 @@
         <v>749</v>
       </c>
       <c r="F294" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G294" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G294" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="28.8">
@@ -13437,10 +13435,10 @@
         <v>749</v>
       </c>
       <c r="F295" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G295" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G295" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="28.8">
@@ -13452,10 +13450,10 @@
         <v>749</v>
       </c>
       <c r="F296" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G296" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G296" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="28.8">
@@ -13467,10 +13465,10 @@
         <v>749</v>
       </c>
       <c r="F297" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G297" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G297" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="28.8">
@@ -13482,10 +13480,10 @@
         <v>749</v>
       </c>
       <c r="F298" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G298" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G298" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="28.8">
@@ -13497,10 +13495,10 @@
         <v>749</v>
       </c>
       <c r="F299" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G299" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G299" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="28.8">
@@ -13512,10 +13510,10 @@
         <v>749</v>
       </c>
       <c r="F300" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G300" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G300" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="28.8">
@@ -13527,10 +13525,10 @@
         <v>749</v>
       </c>
       <c r="F301" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G301" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G301" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="28.8">
@@ -13542,10 +13540,10 @@
         <v>749</v>
       </c>
       <c r="F302" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G302" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G302" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="28.8">
@@ -13557,10 +13555,10 @@
         <v>749</v>
       </c>
       <c r="F303" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G303" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G303" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="28.8">
@@ -13572,10 +13570,10 @@
         <v>749</v>
       </c>
       <c r="F304" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G304" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G304" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="28.8">
@@ -13587,10 +13585,10 @@
         <v>749</v>
       </c>
       <c r="F305" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G305" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G305" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="28.8">
@@ -13602,10 +13600,10 @@
         <v>749</v>
       </c>
       <c r="F306" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G306" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G306" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="28.8">
@@ -13617,10 +13615,10 @@
         <v>749</v>
       </c>
       <c r="F307" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G307" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G307" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="28.8">
@@ -13632,10 +13630,10 @@
         <v>749</v>
       </c>
       <c r="F308" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G308" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G308" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="28.8">
@@ -13647,10 +13645,10 @@
         <v>749</v>
       </c>
       <c r="F309" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G309" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G309" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.8">
@@ -13662,10 +13660,10 @@
         <v>749</v>
       </c>
       <c r="F310" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G310" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G310" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.8">
@@ -13677,10 +13675,10 @@
         <v>749</v>
       </c>
       <c r="F311" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G311" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G311" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="28.8">
@@ -13692,10 +13690,10 @@
         <v>749</v>
       </c>
       <c r="F312" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G312" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G312" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="28.8">
@@ -13707,10 +13705,10 @@
         <v>749</v>
       </c>
       <c r="F313" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G313" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G313" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="28.8">
@@ -13722,10 +13720,10 @@
         <v>749</v>
       </c>
       <c r="F314" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G314" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G314" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="28.8">
@@ -13737,10 +13735,10 @@
         <v>749</v>
       </c>
       <c r="F315" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G315" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G315" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="28.8">
@@ -13752,10 +13750,10 @@
         <v>749</v>
       </c>
       <c r="F316" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G316" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G316" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="28.8">
@@ -13767,10 +13765,10 @@
         <v>749</v>
       </c>
       <c r="F317" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G317" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G317" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8">
@@ -13782,10 +13780,10 @@
         <v>749</v>
       </c>
       <c r="F318" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G318" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G318" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="28.8">
@@ -13797,10 +13795,10 @@
         <v>749</v>
       </c>
       <c r="F319" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G319" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G319" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="28.8">
@@ -13812,10 +13810,10 @@
         <v>749</v>
       </c>
       <c r="F320" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G320" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G320" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="28.8">
@@ -13827,10 +13825,10 @@
         <v>749</v>
       </c>
       <c r="F321" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G321" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G321" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.8">
@@ -13842,10 +13840,10 @@
         <v>749</v>
       </c>
       <c r="F322" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G322" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G322" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="28.8">
@@ -13857,10 +13855,10 @@
         <v>749</v>
       </c>
       <c r="F323" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G323" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G323" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="28.8">
@@ -13872,10 +13870,10 @@
         <v>749</v>
       </c>
       <c r="F324" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G324" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G324" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.8">
@@ -13887,10 +13885,10 @@
         <v>749</v>
       </c>
       <c r="F325" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G325" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G325" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="28.8">
@@ -13902,10 +13900,10 @@
         <v>749</v>
       </c>
       <c r="F326" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G326" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G326" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.8">
@@ -13917,10 +13915,10 @@
         <v>749</v>
       </c>
       <c r="F327" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G327" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G327" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="28.8">
@@ -13932,10 +13930,10 @@
         <v>749</v>
       </c>
       <c r="F328" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G328" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G328" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="28.8">
@@ -13947,10 +13945,10 @@
         <v>749</v>
       </c>
       <c r="F329" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G329" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G329" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="28.8">
@@ -13962,10 +13960,10 @@
         <v>749</v>
       </c>
       <c r="F330" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G330" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G330" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="28.8">
@@ -13977,10 +13975,10 @@
         <v>749</v>
       </c>
       <c r="F331" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G331" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G331" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.8">
@@ -13992,10 +13990,10 @@
         <v>749</v>
       </c>
       <c r="F332" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G332" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G332" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="28.8">
@@ -14007,10 +14005,10 @@
         <v>749</v>
       </c>
       <c r="F333" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G333" s="30" t="s">
         <v>897</v>
-      </c>
-      <c r="G333" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14047,8 +14045,8 @@
   <dimension ref="A1:H838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A823" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A838" sqref="A838"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30756,9 +30754,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30872,7 +30870,7 @@
         <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -30883,7 +30881,7 @@
         <v>251</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -30905,7 +30903,7 @@
         <v>268</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -30916,7 +30914,7 @@
         <v>280</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -30927,7 +30925,7 @@
         <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -30982,7 +30980,7 @@
         <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -30993,7 +30991,7 @@
         <v>256</v>
       </c>
       <c r="C24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -31004,7 +31002,7 @@
         <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -31048,7 +31046,7 @@
         <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -31059,7 +31057,7 @@
         <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -31070,7 +31068,7 @@
         <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -31081,7 +31079,7 @@
         <v>251</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -31114,7 +31112,7 @@
         <v>810</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -31126,7 +31124,7 @@
         <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="13" customFormat="1">
@@ -31137,7 +31135,7 @@
         <v>810</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -31160,7 +31158,7 @@
         <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -31171,7 +31169,7 @@
         <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -31248,7 +31246,7 @@
         <v>255</v>
       </c>
       <c r="C47" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1">
@@ -31347,7 +31345,7 @@
         <v>786</v>
       </c>
       <c r="C56" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -31369,7 +31367,7 @@
         <v>790</v>
       </c>
       <c r="C58" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -31380,7 +31378,7 @@
         <v>790</v>
       </c>
       <c r="C59" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -31391,7 +31389,7 @@
         <v>795</v>
       </c>
       <c r="C60" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -31521,7 +31519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31664,7 +31662,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31904,7 +31902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32107,7 +32105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
+++ b/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\250477\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681528A4-BA06-4ED7-BB4B-9177645EBEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1FD5C-19EF-459E-8359-B5963A80488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -3569,11 +3569,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>593</v>
+      <c r="A10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" t="s">
+        <v>500</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="38" t="s">
-        <v>478</v>
+        <v>263</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -3607,14 +3607,13 @@
       <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>595</v>
+      <c r="A12" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -3628,13 +3627,14 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -3651,10 +3651,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>

--- a/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
+++ b/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\250477\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1FD5C-19EF-459E-8359-B5963A80488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023884A-A25D-4350-8BA7-3DFA192ED885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="916">
   <si>
     <t>Name</t>
   </si>
@@ -2853,6 +2853,9 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -2865,7 +2868,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
   </si>
 </sst>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="21">
       <c r="A3" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3775,7 +3778,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51B2-79EE-4420-A06F-4DB0AB134ADC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3824,8 +3827,14 @@
         <v>913</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
+++ b/Data/Commodore 128/250477/Data C128DCR 250477.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\250477\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023884A-A25D-4350-8BA7-3DFA192ED885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2AC46-7C23-4ED9-82CA-10DD3F88A08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
